--- a/kbtg-training/amq-streams-2022-labs.xlsx
+++ b/kbtg-training/amq-streams-2022-labs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="134">
   <si>
     <t>email</t>
   </si>
@@ -34,6 +34,9 @@
     <t>ocp password</t>
   </si>
   <si>
+    <t>ชอน</t>
+  </si>
+  <si>
     <t>ssh student@bastion.t5zpw.sandbox687.opentlc.com</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>hand-on</t>
   </si>
   <si>
+    <t>เมฆ</t>
+  </si>
+  <si>
     <t>ssh node2</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>https://chatapazar.gitbook.io/amq-streams-training-2022/</t>
   </si>
   <si>
+    <t>ไกด์</t>
+  </si>
+  <si>
     <t>ssh node3</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>https://bit.ly/amq-gitbook</t>
   </si>
   <si>
+    <t>เอก</t>
+  </si>
+  <si>
     <t>ssh student@bastion.rmj57.sandbox2130.opentlc.com</t>
   </si>
   <si>
@@ -85,15 +97,24 @@
     <t>git url</t>
   </si>
   <si>
+    <t>เน</t>
+  </si>
+  <si>
     <t>user5</t>
   </si>
   <si>
     <t>https://github.com/chatapazar/amq-streams-2022</t>
   </si>
   <si>
+    <t>น๊อต</t>
+  </si>
+  <si>
     <t>user6</t>
   </si>
   <si>
+    <t>เอโปร</t>
+  </si>
+  <si>
     <t>ssh student@bastion.zvwch.sandbox1622.opentlc.com</t>
   </si>
   <si>
@@ -106,15 +127,27 @@
     <t>material</t>
   </si>
   <si>
+    <t>ฟีม</t>
+  </si>
+  <si>
     <t>user8</t>
   </si>
   <si>
     <t>https://bit.ly/amq_material</t>
   </si>
   <si>
+    <t>เค</t>
+  </si>
+  <si>
     <t>user9</t>
   </si>
   <si>
+    <t>excel lab</t>
+  </si>
+  <si>
+    <t>ไข่</t>
+  </si>
+  <si>
     <t>ssh student@bastion.dtf8g.sandbox717.opentlc.com</t>
   </si>
   <si>
@@ -124,12 +157,24 @@
     <t>user10</t>
   </si>
   <si>
+    <t>https://bit.ly/amq-kbtg</t>
+  </si>
+  <si>
+    <t>บอล</t>
+  </si>
+  <si>
     <t>user11</t>
   </si>
   <si>
+    <t>เอ้ก</t>
+  </si>
+  <si>
     <t>user12</t>
   </si>
   <si>
+    <t>โต</t>
+  </si>
+  <si>
     <t>ssh student@bastion.5g7dj.sandbox2336.opentlc.com</t>
   </si>
   <si>
@@ -139,7 +184,13 @@
     <t>user13</t>
   </si>
   <si>
+    <t>น้ำพุ</t>
+  </si>
+  <si>
     <t>user14</t>
+  </si>
+  <si>
+    <t>หนึ่ง</t>
   </si>
   <si>
     <t>user15</t>
@@ -704,7 +755,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -755,6 +806,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color rgb="FF222222"/>
       <name val="Monospace"/>
     </font>
@@ -817,15 +873,14 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -833,7 +888,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -855,16 +909,20 @@
     <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1116,915 +1174,951 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>12</v>
+        <v>104</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
+        <v>107</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
+        <v>110</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="17" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="17" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="17" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
+        <v>132</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2042,63 +2136,64 @@
     <hyperlink r:id="rId12" ref="I9"/>
     <hyperlink r:id="rId13" ref="E10"/>
     <hyperlink r:id="rId14" ref="E11"/>
-    <hyperlink r:id="rId15" ref="E12"/>
-    <hyperlink r:id="rId16" ref="E13"/>
-    <hyperlink r:id="rId17" ref="E14"/>
-    <hyperlink r:id="rId18" ref="E15"/>
-    <hyperlink r:id="rId19" ref="E16"/>
-    <hyperlink r:id="rId20" ref="E17"/>
-    <hyperlink r:id="rId21" ref="E18"/>
-    <hyperlink r:id="rId22" ref="E19"/>
-    <hyperlink r:id="rId23" ref="E20"/>
-    <hyperlink r:id="rId24" ref="E21"/>
-    <hyperlink r:id="rId25" ref="E22"/>
-    <hyperlink r:id="rId26" ref="B23"/>
-    <hyperlink r:id="rId27" ref="E23"/>
-    <hyperlink r:id="rId28" ref="B24"/>
-    <hyperlink r:id="rId29" ref="E24"/>
-    <hyperlink r:id="rId30" ref="B25"/>
-    <hyperlink r:id="rId31" ref="E25"/>
-    <hyperlink r:id="rId32" ref="B26"/>
-    <hyperlink r:id="rId33" ref="E26"/>
-    <hyperlink r:id="rId34" ref="B27"/>
-    <hyperlink r:id="rId35" ref="E27"/>
-    <hyperlink r:id="rId36" ref="B28"/>
-    <hyperlink r:id="rId37" ref="E28"/>
-    <hyperlink r:id="rId38" ref="B29"/>
-    <hyperlink r:id="rId39" ref="E29"/>
-    <hyperlink r:id="rId40" ref="B30"/>
-    <hyperlink r:id="rId41" ref="E30"/>
-    <hyperlink r:id="rId42" ref="B31"/>
-    <hyperlink r:id="rId43" ref="E31"/>
-    <hyperlink r:id="rId44" ref="B32"/>
-    <hyperlink r:id="rId45" ref="E32"/>
-    <hyperlink r:id="rId46" ref="B33"/>
-    <hyperlink r:id="rId47" ref="E33"/>
-    <hyperlink r:id="rId48" ref="B34"/>
-    <hyperlink r:id="rId49" ref="E34"/>
-    <hyperlink r:id="rId50" ref="B35"/>
-    <hyperlink r:id="rId51" ref="E35"/>
-    <hyperlink r:id="rId52" ref="B36"/>
-    <hyperlink r:id="rId53" ref="E36"/>
-    <hyperlink r:id="rId54" ref="B37"/>
-    <hyperlink r:id="rId55" ref="E37"/>
-    <hyperlink r:id="rId56" ref="B38"/>
-    <hyperlink r:id="rId57" ref="E38"/>
-    <hyperlink r:id="rId58" ref="B39"/>
-    <hyperlink r:id="rId59" ref="E39"/>
-    <hyperlink r:id="rId60" ref="B40"/>
-    <hyperlink r:id="rId61" ref="E40"/>
-    <hyperlink r:id="rId62" ref="B41"/>
-    <hyperlink r:id="rId63" ref="E41"/>
-    <hyperlink r:id="rId64" ref="B42"/>
-    <hyperlink r:id="rId65" ref="E42"/>
-    <hyperlink r:id="rId66" ref="B43"/>
-    <hyperlink r:id="rId67" ref="E43"/>
+    <hyperlink r:id="rId15" ref="I11"/>
+    <hyperlink r:id="rId16" ref="E12"/>
+    <hyperlink r:id="rId17" ref="E13"/>
+    <hyperlink r:id="rId18" ref="E14"/>
+    <hyperlink r:id="rId19" ref="E15"/>
+    <hyperlink r:id="rId20" ref="E16"/>
+    <hyperlink r:id="rId21" ref="E17"/>
+    <hyperlink r:id="rId22" ref="E18"/>
+    <hyperlink r:id="rId23" ref="E19"/>
+    <hyperlink r:id="rId24" ref="E20"/>
+    <hyperlink r:id="rId25" ref="E21"/>
+    <hyperlink r:id="rId26" ref="E22"/>
+    <hyperlink r:id="rId27" ref="B23"/>
+    <hyperlink r:id="rId28" ref="E23"/>
+    <hyperlink r:id="rId29" ref="B24"/>
+    <hyperlink r:id="rId30" ref="E24"/>
+    <hyperlink r:id="rId31" ref="B25"/>
+    <hyperlink r:id="rId32" ref="E25"/>
+    <hyperlink r:id="rId33" ref="B26"/>
+    <hyperlink r:id="rId34" ref="E26"/>
+    <hyperlink r:id="rId35" ref="B27"/>
+    <hyperlink r:id="rId36" ref="E27"/>
+    <hyperlink r:id="rId37" ref="B28"/>
+    <hyperlink r:id="rId38" ref="E28"/>
+    <hyperlink r:id="rId39" ref="B29"/>
+    <hyperlink r:id="rId40" ref="E29"/>
+    <hyperlink r:id="rId41" ref="B30"/>
+    <hyperlink r:id="rId42" ref="E30"/>
+    <hyperlink r:id="rId43" ref="B31"/>
+    <hyperlink r:id="rId44" ref="E31"/>
+    <hyperlink r:id="rId45" ref="B32"/>
+    <hyperlink r:id="rId46" ref="E32"/>
+    <hyperlink r:id="rId47" ref="B33"/>
+    <hyperlink r:id="rId48" ref="E33"/>
+    <hyperlink r:id="rId49" ref="B34"/>
+    <hyperlink r:id="rId50" ref="E34"/>
+    <hyperlink r:id="rId51" ref="B35"/>
+    <hyperlink r:id="rId52" ref="E35"/>
+    <hyperlink r:id="rId53" ref="B36"/>
+    <hyperlink r:id="rId54" ref="E36"/>
+    <hyperlink r:id="rId55" ref="B37"/>
+    <hyperlink r:id="rId56" ref="E37"/>
+    <hyperlink r:id="rId57" ref="B38"/>
+    <hyperlink r:id="rId58" ref="E38"/>
+    <hyperlink r:id="rId59" ref="B39"/>
+    <hyperlink r:id="rId60" ref="E39"/>
+    <hyperlink r:id="rId61" ref="B40"/>
+    <hyperlink r:id="rId62" ref="E40"/>
+    <hyperlink r:id="rId63" ref="B41"/>
+    <hyperlink r:id="rId64" ref="E41"/>
+    <hyperlink r:id="rId65" ref="B42"/>
+    <hyperlink r:id="rId66" ref="E42"/>
+    <hyperlink r:id="rId67" ref="B43"/>
+    <hyperlink r:id="rId68" ref="E43"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId68"/>
+  <drawing r:id="rId69"/>
 </worksheet>
 </file>